--- a/CRS-LT-G4-EpicDistributionChart.xlsx
+++ b/CRS-LT-G4-EpicDistributionChart.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\10695490\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25611F1B-608C-4B6D-9427-999B87CB174B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75F18C44-1ADE-44C1-8267-5D7C059910B2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{09935033-F01E-49C2-A7A6-4C2321A16158}"/>
   </bookViews>
@@ -712,8 +712,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4466494-A2E9-45CD-A253-32AF51F62C35}">
   <dimension ref="B1:F19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView tabSelected="1" topLeftCell="A12" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -913,7 +913,7 @@
         <v>49</v>
       </c>
       <c r="F13" s="12" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
     </row>
     <row r="14" spans="2:6" ht="57.6" x14ac:dyDescent="0.3">
